--- a/public/samplestokbarang.xlsx
+++ b/public/samplestokbarang.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{768DE79E-F62E-4781-8CD3-E34202B2113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EDAD14B4-F6C0-4FC5-92D2-736AD7854A3C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,19 +30,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>NO CODE</t>
+    <t>Kode</t>
   </si>
   <si>
-    <t>NAMA PRODUK</t>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Kuantitas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +59,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -90,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -205,7 +210,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -419,35 +424,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACE27B6-EBDD-4AB4-A49F-2EC71EC8348F}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>